--- a/all_words.xlsx
+++ b/all_words.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10615"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asherlk1/Documents/MICA/eliot-word2vec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{724D3512-7BCD-A144-A5EF-CC9D712F70B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB4FD61-165E-5943-BB3C-6BBBCE2AC67A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_words" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3449" uniqueCount="3448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3690" uniqueCount="3455">
   <si>
     <t>word</t>
   </si>
@@ -10364,12 +10364,33 @@
   </si>
   <si>
     <t>botanical</t>
+  </si>
+  <si>
+    <t>geologic</t>
+  </si>
+  <si>
+    <t>relationship</t>
+  </si>
+  <si>
+    <t>botanical or animal</t>
+  </si>
+  <si>
+    <t>clothing</t>
+  </si>
+  <si>
+    <t>religion or god</t>
+  </si>
+  <si>
+    <t>physicality</t>
+  </si>
+  <si>
+    <t>bofy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -11203,96 +11224,124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3431" workbookViewId="0">
-      <selection activeCell="C3445" sqref="C3445"/>
+    <sheetView tabSelected="1" topLeftCell="A457" workbookViewId="0">
+      <selection activeCell="C598" sqref="C598"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -11300,7 +11349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -11308,15 +11357,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -11324,151 +11376,205 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -11476,15 +11582,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -11492,7 +11601,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -11500,15 +11609,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -11516,31 +11628,40 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -11548,23 +11669,29 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -11572,23 +11699,29 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -11596,15 +11729,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -11612,7 +11748,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -11620,7 +11756,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -11628,7 +11764,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -11636,7 +11772,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -11644,31 +11780,40 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -11676,7 +11821,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -11684,15 +11829,18 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -11700,7 +11848,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -11708,7 +11856,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -11716,23 +11864,29 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -11740,39 +11894,51 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
@@ -11780,7 +11946,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
@@ -11788,7 +11954,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -11796,7 +11962,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
@@ -11804,7 +11970,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
@@ -11812,7 +11978,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
@@ -11820,7 +11986,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
@@ -11828,23 +11994,29 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C79" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>78</v>
       </c>
@@ -11852,7 +12024,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
@@ -11860,7 +12032,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>80</v>
       </c>
@@ -11868,7 +12040,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>81</v>
       </c>
@@ -11876,15 +12048,18 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C84" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>83</v>
       </c>
@@ -11892,7 +12067,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>84</v>
       </c>
@@ -11900,7 +12075,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>85</v>
       </c>
@@ -11908,23 +12083,29 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C88" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C89" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>88</v>
       </c>
@@ -11932,7 +12113,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
@@ -11940,7 +12121,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>90</v>
       </c>
@@ -11948,7 +12129,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>91</v>
       </c>
@@ -11956,7 +12137,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>92</v>
       </c>
@@ -11964,23 +12145,29 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C95" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C96" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>95</v>
       </c>
@@ -11988,15 +12175,18 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C98" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>97</v>
       </c>
@@ -12004,7 +12194,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>98</v>
       </c>
@@ -12012,7 +12202,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>99</v>
       </c>
@@ -12020,23 +12210,29 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>100</v>
       </c>
       <c r="B102" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C102" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>101</v>
       </c>
       <c r="B103" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C103" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>102</v>
       </c>
@@ -12044,15 +12240,18 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>103</v>
       </c>
       <c r="B105" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C105" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>104</v>
       </c>
@@ -12060,7 +12259,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>105</v>
       </c>
@@ -12068,15 +12267,18 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>106</v>
       </c>
       <c r="B108" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>107</v>
       </c>
@@ -12084,7 +12286,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>108</v>
       </c>
@@ -12092,7 +12294,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>109</v>
       </c>
@@ -12100,15 +12302,18 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>110</v>
       </c>
       <c r="B112" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C112" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>111</v>
       </c>
@@ -12116,7 +12321,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>112</v>
       </c>
@@ -12124,7 +12329,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>113</v>
       </c>
@@ -12132,7 +12337,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>114</v>
       </c>
@@ -12140,7 +12345,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>115</v>
       </c>
@@ -12148,7 +12353,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>116</v>
       </c>
@@ -12156,7 +12361,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>117</v>
       </c>
@@ -12164,7 +12369,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>118</v>
       </c>
@@ -12172,7 +12377,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>119</v>
       </c>
@@ -12180,7 +12385,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>120</v>
       </c>
@@ -12188,31 +12393,40 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>121</v>
       </c>
       <c r="B123" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C123" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>122</v>
       </c>
       <c r="B124" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C124" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>123</v>
       </c>
       <c r="B125" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C125" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>124</v>
       </c>
@@ -12220,15 +12434,18 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>125</v>
       </c>
       <c r="B127" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C127" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>126</v>
       </c>
@@ -12236,7 +12453,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>127</v>
       </c>
@@ -12244,7 +12461,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>128</v>
       </c>
@@ -12252,7 +12469,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>129</v>
       </c>
@@ -12260,7 +12477,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>130</v>
       </c>
@@ -12268,7 +12485,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>131</v>
       </c>
@@ -12276,7 +12493,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>132</v>
       </c>
@@ -12284,39 +12501,51 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>133</v>
       </c>
       <c r="B135" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C135" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>134</v>
       </c>
       <c r="B136" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C136" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>135</v>
       </c>
       <c r="B137" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C137" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>136</v>
       </c>
       <c r="B138" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C138" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>137</v>
       </c>
@@ -12324,7 +12553,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>138</v>
       </c>
@@ -12332,7 +12561,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>139</v>
       </c>
@@ -12340,7 +12569,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>140</v>
       </c>
@@ -12348,7 +12577,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>141</v>
       </c>
@@ -12356,7 +12585,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>142</v>
       </c>
@@ -12364,55 +12593,73 @@
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>143</v>
       </c>
       <c r="B145" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C145" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>144</v>
       </c>
       <c r="B146" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C146" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>145</v>
       </c>
       <c r="B147" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C147" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>146</v>
       </c>
       <c r="B148" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C148" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>147</v>
       </c>
       <c r="B149" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C149" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>148</v>
       </c>
       <c r="B150" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C150" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>149</v>
       </c>
@@ -12420,7 +12667,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>150</v>
       </c>
@@ -12428,7 +12675,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>151</v>
       </c>
@@ -12436,7 +12683,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>152</v>
       </c>
@@ -12444,7 +12691,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>153</v>
       </c>
@@ -12452,15 +12699,18 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>154</v>
       </c>
       <c r="B156" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C156" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>155</v>
       </c>
@@ -12468,7 +12718,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>156</v>
       </c>
@@ -12476,7 +12726,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>157</v>
       </c>
@@ -12484,7 +12734,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>158</v>
       </c>
@@ -12492,7 +12742,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>159</v>
       </c>
@@ -12500,15 +12750,18 @@
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>160</v>
       </c>
       <c r="B162" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C162" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>161</v>
       </c>
@@ -12516,31 +12769,40 @@
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>162</v>
       </c>
       <c r="B164" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C164" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>163</v>
       </c>
       <c r="B165" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C165" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>164</v>
       </c>
       <c r="B166" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C166" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>165</v>
       </c>
@@ -12548,15 +12810,18 @@
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>166</v>
       </c>
       <c r="B168" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C168" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>167</v>
       </c>
@@ -12564,7 +12829,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>168</v>
       </c>
@@ -12572,7 +12837,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>169</v>
       </c>
@@ -12580,31 +12845,40 @@
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>170</v>
       </c>
       <c r="B172" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C172" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>171</v>
       </c>
       <c r="B173" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C173" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>172</v>
       </c>
       <c r="B174" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C174" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>173</v>
       </c>
@@ -12612,15 +12886,18 @@
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>174</v>
       </c>
       <c r="B176" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C176" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>175</v>
       </c>
@@ -12628,15 +12905,18 @@
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>176</v>
       </c>
       <c r="B178" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C178" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>177</v>
       </c>
@@ -12644,7 +12924,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>178</v>
       </c>
@@ -12652,7 +12932,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>179</v>
       </c>
@@ -12660,23 +12940,29 @@
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>180</v>
       </c>
       <c r="B182" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C182" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>181</v>
       </c>
       <c r="B183" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C183" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>182</v>
       </c>
@@ -12684,15 +12970,18 @@
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>183</v>
       </c>
       <c r="B185" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C185" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>184</v>
       </c>
@@ -12700,7 +12989,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>185</v>
       </c>
@@ -12708,7 +12997,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>186</v>
       </c>
@@ -12716,7 +13005,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>187</v>
       </c>
@@ -12724,15 +13013,18 @@
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>188</v>
       </c>
       <c r="B190" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C190" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>189</v>
       </c>
@@ -12740,7 +13032,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>190</v>
       </c>
@@ -12748,23 +13040,29 @@
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>191</v>
       </c>
       <c r="B193" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C193" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>192</v>
       </c>
       <c r="B194" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C194" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>193</v>
       </c>
@@ -12772,7 +13070,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>194</v>
       </c>
@@ -12780,7 +13078,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>195</v>
       </c>
@@ -12788,7 +13086,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>196</v>
       </c>
@@ -12796,15 +13094,18 @@
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>197</v>
       </c>
       <c r="B199" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C199" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>198</v>
       </c>
@@ -12812,7 +13113,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>199</v>
       </c>
@@ -12820,15 +13121,18 @@
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>200</v>
       </c>
       <c r="B202" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C202" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>201</v>
       </c>
@@ -12836,7 +13140,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>202</v>
       </c>
@@ -12844,7 +13148,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>203</v>
       </c>
@@ -12852,23 +13156,29 @@
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>204</v>
       </c>
       <c r="B206" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C206" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>205</v>
       </c>
       <c r="B207" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C207" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>206</v>
       </c>
@@ -12876,7 +13186,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>207</v>
       </c>
@@ -12884,7 +13194,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>208</v>
       </c>
@@ -12892,15 +13202,18 @@
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>209</v>
       </c>
       <c r="B211" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C211" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>210</v>
       </c>
@@ -12908,23 +13221,29 @@
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>211</v>
       </c>
       <c r="B213" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C213" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>212</v>
       </c>
       <c r="B214" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C214" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>213</v>
       </c>
@@ -12932,31 +13251,40 @@
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>214</v>
       </c>
       <c r="B216" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C216" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>215</v>
       </c>
       <c r="B217" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C217" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>216</v>
       </c>
       <c r="B218" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C218" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>217</v>
       </c>
@@ -12964,7 +13292,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>218</v>
       </c>
@@ -12972,7 +13300,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>219</v>
       </c>
@@ -12980,7 +13308,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>220</v>
       </c>
@@ -12988,7 +13316,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>221</v>
       </c>
@@ -12996,7 +13324,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>222</v>
       </c>
@@ -13004,7 +13332,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>223</v>
       </c>
@@ -13012,7 +13340,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>224</v>
       </c>
@@ -13020,7 +13348,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>225</v>
       </c>
@@ -13028,15 +13356,18 @@
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>226</v>
       </c>
       <c r="B228" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C228" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>227</v>
       </c>
@@ -13044,7 +13375,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>228</v>
       </c>
@@ -13052,15 +13383,18 @@
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>229</v>
       </c>
       <c r="B231" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C231" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>230</v>
       </c>
@@ -13068,23 +13402,29 @@
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>231</v>
       </c>
       <c r="B233" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C233" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>232</v>
       </c>
       <c r="B234" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C234" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>233</v>
       </c>
@@ -13092,7 +13432,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>234</v>
       </c>
@@ -13100,15 +13440,18 @@
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>235</v>
       </c>
       <c r="B237" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C237" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>236</v>
       </c>
@@ -13116,31 +13459,40 @@
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>237</v>
       </c>
       <c r="B239" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C239" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>238</v>
       </c>
       <c r="B240" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C240" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>239</v>
       </c>
       <c r="B241" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C241" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>240</v>
       </c>
@@ -13148,7 +13500,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>241</v>
       </c>
@@ -13156,7 +13508,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>242</v>
       </c>
@@ -13164,23 +13516,29 @@
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>243</v>
       </c>
       <c r="B245" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C245" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>244</v>
       </c>
       <c r="B246" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C246" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>245</v>
       </c>
@@ -13188,15 +13546,18 @@
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>246</v>
       </c>
       <c r="B248" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C248" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>247</v>
       </c>
@@ -13204,15 +13565,18 @@
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>248</v>
       </c>
       <c r="B250" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C250" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>249</v>
       </c>
@@ -13220,7 +13584,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>250</v>
       </c>
@@ -13228,23 +13592,29 @@
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>251</v>
       </c>
       <c r="B253" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C253" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>252</v>
       </c>
       <c r="B254" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C254" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>253</v>
       </c>
@@ -13252,15 +13622,18 @@
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>254</v>
       </c>
       <c r="B256" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C256" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>255</v>
       </c>
@@ -13268,7 +13641,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>256</v>
       </c>
@@ -13276,7 +13649,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>257</v>
       </c>
@@ -13284,7 +13657,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>258</v>
       </c>
@@ -13292,7 +13665,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>259</v>
       </c>
@@ -13300,7 +13673,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>260</v>
       </c>
@@ -13308,7 +13681,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>261</v>
       </c>
@@ -13316,7 +13689,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>262</v>
       </c>
@@ -13324,15 +13697,18 @@
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>263</v>
       </c>
       <c r="B265" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C265" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>264</v>
       </c>
@@ -13340,7 +13716,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>265</v>
       </c>
@@ -13348,7 +13724,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>266</v>
       </c>
@@ -13356,7 +13732,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>267</v>
       </c>
@@ -13364,15 +13740,18 @@
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>268</v>
       </c>
       <c r="B270" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C270" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>269</v>
       </c>
@@ -13380,7 +13759,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>270</v>
       </c>
@@ -13388,15 +13767,18 @@
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>271</v>
       </c>
       <c r="B273" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C273" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>272</v>
       </c>
@@ -13404,7 +13786,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>273</v>
       </c>
@@ -13412,15 +13794,18 @@
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>274</v>
       </c>
       <c r="B276" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C276" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>275</v>
       </c>
@@ -13428,7 +13813,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>276</v>
       </c>
@@ -13436,7 +13821,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>277</v>
       </c>
@@ -13444,15 +13829,18 @@
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>278</v>
       </c>
       <c r="B280" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C280" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>279</v>
       </c>
@@ -13460,15 +13848,18 @@
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>280</v>
       </c>
       <c r="B282" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C282" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>281</v>
       </c>
@@ -13476,15 +13867,18 @@
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>282</v>
       </c>
       <c r="B284" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C284" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>283</v>
       </c>
@@ -13492,7 +13886,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>284</v>
       </c>
@@ -13500,15 +13894,18 @@
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>285</v>
       </c>
       <c r="B287" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C287" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>286</v>
       </c>
@@ -13516,23 +13913,29 @@
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>287</v>
       </c>
       <c r="B289" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C289" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>288</v>
       </c>
       <c r="B290" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C290" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>289</v>
       </c>
@@ -13540,7 +13943,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>290</v>
       </c>
@@ -13548,31 +13951,40 @@
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>291</v>
       </c>
       <c r="B293" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C293" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>292</v>
       </c>
       <c r="B294" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C294" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>293</v>
       </c>
       <c r="B295" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C295" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>294</v>
       </c>
@@ -13580,15 +13992,18 @@
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>295</v>
       </c>
       <c r="B297" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C297" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>296</v>
       </c>
@@ -13596,7 +14011,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>297</v>
       </c>
@@ -13604,7 +14019,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>298</v>
       </c>
@@ -13612,15 +14027,18 @@
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>299</v>
       </c>
       <c r="B301" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C301" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>300</v>
       </c>
@@ -13628,23 +14046,29 @@
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>301</v>
       </c>
       <c r="B303" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C303" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>302</v>
       </c>
       <c r="B304" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C304" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>303</v>
       </c>
@@ -13652,15 +14076,18 @@
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>304</v>
       </c>
       <c r="B306" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C306" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>305</v>
       </c>
@@ -13668,7 +14095,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>306</v>
       </c>
@@ -13676,7 +14103,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>307</v>
       </c>
@@ -13684,7 +14111,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>308</v>
       </c>
@@ -13692,7 +14119,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>309</v>
       </c>
@@ -13700,7 +14127,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>310</v>
       </c>
@@ -13708,7 +14135,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>311</v>
       </c>
@@ -13716,7 +14143,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>312</v>
       </c>
@@ -13724,7 +14151,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>313</v>
       </c>
@@ -13732,23 +14159,29 @@
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>314</v>
       </c>
       <c r="B316" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C316" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>315</v>
       </c>
       <c r="B317" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C317" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>316</v>
       </c>
@@ -13756,7 +14189,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>317</v>
       </c>
@@ -13764,7 +14197,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>318</v>
       </c>
@@ -13772,7 +14205,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>319</v>
       </c>
@@ -13780,15 +14213,18 @@
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>320</v>
       </c>
       <c r="B322" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C322" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>321</v>
       </c>
@@ -13796,7 +14232,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>322</v>
       </c>
@@ -13804,7 +14240,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>323</v>
       </c>
@@ -13812,15 +14248,18 @@
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>324</v>
       </c>
       <c r="B326" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C326" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>325</v>
       </c>
@@ -13828,15 +14267,18 @@
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>326</v>
       </c>
       <c r="B328" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C328" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>327</v>
       </c>
@@ -13844,7 +14286,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>328</v>
       </c>
@@ -13852,15 +14294,18 @@
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>329</v>
       </c>
       <c r="B331" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C331" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>330</v>
       </c>
@@ -13868,31 +14313,40 @@
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>331</v>
       </c>
       <c r="B333" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C333" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>332</v>
       </c>
       <c r="B334" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C334" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>333</v>
       </c>
       <c r="B335" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C335" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>334</v>
       </c>
@@ -13900,23 +14354,29 @@
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>335</v>
       </c>
       <c r="B337" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C337" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>336</v>
       </c>
       <c r="B338" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C338" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>337</v>
       </c>
@@ -13924,7 +14384,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>338</v>
       </c>
@@ -13932,15 +14392,18 @@
         <v>339</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>339</v>
       </c>
       <c r="B341" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C341" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>340</v>
       </c>
@@ -13948,23 +14411,29 @@
         <v>341</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>341</v>
       </c>
       <c r="B343" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C343" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>342</v>
       </c>
       <c r="B344" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C344" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>343</v>
       </c>
@@ -13972,23 +14441,29 @@
         <v>344</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>344</v>
       </c>
       <c r="B346" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C346" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>345</v>
       </c>
       <c r="B347" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C347" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>346</v>
       </c>
@@ -13996,15 +14471,18 @@
         <v>347</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>347</v>
       </c>
       <c r="B349" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C349" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>348</v>
       </c>
@@ -14012,7 +14490,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>349</v>
       </c>
@@ -14020,7 +14498,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>350</v>
       </c>
@@ -14028,7 +14506,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>351</v>
       </c>
@@ -14036,55 +14514,73 @@
         <v>352</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>352</v>
       </c>
       <c r="B354" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C354" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>353</v>
       </c>
       <c r="B355" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C355" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>354</v>
       </c>
       <c r="B356" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C356" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>355</v>
       </c>
       <c r="B357" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C357" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>356</v>
       </c>
       <c r="B358" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C358" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>357</v>
       </c>
       <c r="B359" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C359" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>358</v>
       </c>
@@ -14092,7 +14588,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>359</v>
       </c>
@@ -14100,7 +14596,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>360</v>
       </c>
@@ -14108,7 +14604,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>361</v>
       </c>
@@ -14116,7 +14612,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>362</v>
       </c>
@@ -14124,7 +14620,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>363</v>
       </c>
@@ -14132,7 +14628,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>364</v>
       </c>
@@ -14140,7 +14636,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>365</v>
       </c>
@@ -14148,7 +14644,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>366</v>
       </c>
@@ -14156,15 +14652,18 @@
         <v>367</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>367</v>
       </c>
       <c r="B369" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C369" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>368</v>
       </c>
@@ -14172,23 +14671,29 @@
         <v>369</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>369</v>
       </c>
       <c r="B371" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C371" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>370</v>
       </c>
       <c r="B372" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C372" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>371</v>
       </c>
@@ -14196,15 +14701,18 @@
         <v>372</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>372</v>
       </c>
       <c r="B374" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C374" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>373</v>
       </c>
@@ -14212,7 +14720,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>374</v>
       </c>
@@ -14220,7 +14728,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>375</v>
       </c>
@@ -14228,7 +14736,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>376</v>
       </c>
@@ -14236,7 +14744,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>377</v>
       </c>
@@ -14244,23 +14752,29 @@
         <v>378</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>378</v>
       </c>
       <c r="B380" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C380" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>379</v>
       </c>
       <c r="B381" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C381" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>380</v>
       </c>
@@ -14268,7 +14782,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>381</v>
       </c>
@@ -14276,7 +14790,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>382</v>
       </c>
@@ -14284,7 +14798,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>383</v>
       </c>
@@ -14292,15 +14806,18 @@
         <v>384</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>384</v>
       </c>
       <c r="B386" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C386" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>385</v>
       </c>
@@ -14308,7 +14825,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>386</v>
       </c>
@@ -14316,7 +14833,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>387</v>
       </c>
@@ -14324,7 +14841,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>388</v>
       </c>
@@ -14332,7 +14849,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>389</v>
       </c>
@@ -14340,7 +14857,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>390</v>
       </c>
@@ -14348,7 +14865,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>391</v>
       </c>
@@ -14356,7 +14873,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>392</v>
       </c>
@@ -14364,15 +14881,18 @@
         <v>393</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>393</v>
       </c>
       <c r="B395" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C395" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>394</v>
       </c>
@@ -14380,7 +14900,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>395</v>
       </c>
@@ -14388,7 +14908,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>396</v>
       </c>
@@ -14396,7 +14916,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>397</v>
       </c>
@@ -14404,23 +14924,29 @@
         <v>398</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>398</v>
       </c>
       <c r="B400" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C400" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>399</v>
       </c>
       <c r="B401" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C401" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>400</v>
       </c>
@@ -14428,7 +14954,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>401</v>
       </c>
@@ -14436,7 +14962,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>402</v>
       </c>
@@ -14444,7 +14970,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>403</v>
       </c>
@@ -14452,15 +14978,18 @@
         <v>404</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>404</v>
       </c>
       <c r="B406" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C406" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>405</v>
       </c>
@@ -14468,7 +14997,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>406</v>
       </c>
@@ -14476,7 +15005,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>407</v>
       </c>
@@ -14484,7 +15013,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>408</v>
       </c>
@@ -14492,7 +15021,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>409</v>
       </c>
@@ -14500,7 +15029,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>410</v>
       </c>
@@ -14508,7 +15037,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>411</v>
       </c>
@@ -14516,7 +15045,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>412</v>
       </c>
@@ -14524,7 +15053,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>413</v>
       </c>
@@ -14532,7 +15061,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>414</v>
       </c>
@@ -14540,15 +15069,18 @@
         <v>415</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>415</v>
       </c>
       <c r="B417" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C417" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>416</v>
       </c>
@@ -14556,7 +15088,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>417</v>
       </c>
@@ -14564,7 +15096,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>418</v>
       </c>
@@ -14572,7 +15104,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>419</v>
       </c>
@@ -14580,7 +15112,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>420</v>
       </c>
@@ -14588,7 +15120,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>421</v>
       </c>
@@ -14596,15 +15128,18 @@
         <v>422</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>422</v>
       </c>
       <c r="B424" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C424" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>423</v>
       </c>
@@ -14612,7 +15147,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>424</v>
       </c>
@@ -14620,7 +15155,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>425</v>
       </c>
@@ -14628,15 +15163,18 @@
         <v>426</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>426</v>
       </c>
       <c r="B428" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C428" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>427</v>
       </c>
@@ -14644,7 +15182,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>428</v>
       </c>
@@ -14652,7 +15190,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>429</v>
       </c>
@@ -14660,7 +15198,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>430</v>
       </c>
@@ -14668,7 +15206,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>431</v>
       </c>
@@ -14676,7 +15214,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>432</v>
       </c>
@@ -14684,7 +15222,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>433</v>
       </c>
@@ -14692,15 +15230,18 @@
         <v>434</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>434</v>
       </c>
       <c r="B436" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C436" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>435</v>
       </c>
@@ -14708,7 +15249,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>436</v>
       </c>
@@ -14716,7 +15257,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>437</v>
       </c>
@@ -14724,7 +15265,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>438</v>
       </c>
@@ -14732,7 +15273,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>439</v>
       </c>
@@ -14740,15 +15281,18 @@
         <v>440</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>440</v>
       </c>
       <c r="B442" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C442" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>441</v>
       </c>
@@ -14756,7 +15300,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>442</v>
       </c>
@@ -14764,7 +15308,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>443</v>
       </c>
@@ -14772,31 +15316,40 @@
         <v>444</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>444</v>
       </c>
       <c r="B446" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C446" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>445</v>
       </c>
       <c r="B447" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C447" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>446</v>
       </c>
       <c r="B448" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C448" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>447</v>
       </c>
@@ -14804,7 +15357,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>448</v>
       </c>
@@ -14812,23 +15365,29 @@
         <v>449</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>449</v>
       </c>
       <c r="B451" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C451" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>450</v>
       </c>
       <c r="B452" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C452" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>451</v>
       </c>
@@ -14836,23 +15395,29 @@
         <v>452</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>452</v>
       </c>
       <c r="B454" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C454" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>453</v>
       </c>
       <c r="B455" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C455" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>454</v>
       </c>
@@ -14860,7 +15425,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>455</v>
       </c>
@@ -14868,7 +15433,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>456</v>
       </c>
@@ -14876,15 +15441,18 @@
         <v>457</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>457</v>
       </c>
       <c r="B459" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C459" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>458</v>
       </c>
@@ -14892,7 +15460,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>459</v>
       </c>
@@ -14900,15 +15468,18 @@
         <v>460</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>460</v>
       </c>
       <c r="B462" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C462" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>461</v>
       </c>
@@ -14916,15 +15487,18 @@
         <v>462</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>462</v>
       </c>
       <c r="B464" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C464" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>463</v>
       </c>
@@ -14932,7 +15506,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>464</v>
       </c>
@@ -14940,15 +15514,18 @@
         <v>465</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>465</v>
       </c>
       <c r="B467" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C467" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>466</v>
       </c>
@@ -14956,15 +15533,18 @@
         <v>467</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>467</v>
       </c>
       <c r="B469" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C469" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>468</v>
       </c>
@@ -14972,79 +15552,106 @@
         <v>469</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>469</v>
       </c>
       <c r="B471" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C471" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>470</v>
       </c>
       <c r="B472" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C472" t="s">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>471</v>
       </c>
       <c r="B473" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C473" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>472</v>
       </c>
       <c r="B474" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C474" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>473</v>
       </c>
       <c r="B475" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C475" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>474</v>
       </c>
       <c r="B476" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C476" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>475</v>
       </c>
       <c r="B477" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C477" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>476</v>
       </c>
       <c r="B478" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C478" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>477</v>
       </c>
       <c r="B479" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C479" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>478</v>
       </c>
@@ -15052,7 +15659,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>479</v>
       </c>
@@ -15060,7 +15667,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>480</v>
       </c>
@@ -15068,39 +15675,51 @@
         <v>481</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>481</v>
       </c>
       <c r="B483" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C483" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>482</v>
       </c>
       <c r="B484" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C484" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>483</v>
       </c>
       <c r="B485" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C485" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>484</v>
       </c>
       <c r="B486" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C486" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>485</v>
       </c>
@@ -15108,31 +15727,40 @@
         <v>486</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>486</v>
       </c>
       <c r="B488" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C488" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>487</v>
       </c>
       <c r="B489" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C489" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>488</v>
       </c>
       <c r="B490" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C490" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>489</v>
       </c>
@@ -15140,15 +15768,18 @@
         <v>490</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>490</v>
       </c>
       <c r="B492" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C492" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>491</v>
       </c>
@@ -15156,15 +15787,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>492</v>
       </c>
       <c r="B494" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C494" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>493</v>
       </c>
@@ -15172,15 +15806,18 @@
         <v>494</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>494</v>
       </c>
       <c r="B496" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C496" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>495</v>
       </c>
@@ -15188,7 +15825,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>496</v>
       </c>
@@ -15196,7 +15833,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>497</v>
       </c>
@@ -15204,15 +15841,18 @@
         <v>498</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>498</v>
       </c>
       <c r="B500" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C500" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>499</v>
       </c>
@@ -15220,7 +15860,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>500</v>
       </c>
@@ -15228,7 +15868,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>501</v>
       </c>
@@ -15236,15 +15876,18 @@
         <v>502</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>502</v>
       </c>
       <c r="B504" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C504" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>503</v>
       </c>
@@ -15252,7 +15895,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>504</v>
       </c>
@@ -15260,7 +15903,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>505</v>
       </c>
@@ -15268,7 +15911,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>506</v>
       </c>
@@ -15276,7 +15919,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>507</v>
       </c>
@@ -15284,7 +15927,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>508</v>
       </c>
@@ -15292,15 +15935,18 @@
         <v>509</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>509</v>
       </c>
       <c r="B511" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C511" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>510</v>
       </c>
@@ -15308,23 +15954,29 @@
         <v>511</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>511</v>
       </c>
       <c r="B513" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C513" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>512</v>
       </c>
       <c r="B514" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C514" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>513</v>
       </c>
@@ -15332,7 +15984,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>514</v>
       </c>
@@ -15340,7 +15992,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>515</v>
       </c>
@@ -15348,7 +16000,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>516</v>
       </c>
@@ -15356,23 +16008,29 @@
         <v>517</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>517</v>
       </c>
       <c r="B519" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C519" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>518</v>
       </c>
       <c r="B520" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C520" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>519</v>
       </c>
@@ -15380,7 +16038,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>520</v>
       </c>
@@ -15388,7 +16046,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>521</v>
       </c>
@@ -15396,23 +16054,29 @@
         <v>522</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>522</v>
       </c>
       <c r="B524" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C524" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>523</v>
       </c>
       <c r="B525" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C525" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>524</v>
       </c>
@@ -15420,23 +16084,29 @@
         <v>525</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>525</v>
       </c>
       <c r="B527" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C527" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>526</v>
       </c>
       <c r="B528" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C528" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>527</v>
       </c>
@@ -15444,7 +16114,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>528</v>
       </c>
@@ -15452,15 +16122,18 @@
         <v>529</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>529</v>
       </c>
       <c r="B531" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C531" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>530</v>
       </c>
@@ -15468,7 +16141,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>531</v>
       </c>
@@ -15476,15 +16149,18 @@
         <v>532</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>532</v>
       </c>
       <c r="B534" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C534" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>533</v>
       </c>
@@ -15492,31 +16168,40 @@
         <v>534</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>534</v>
       </c>
       <c r="B536" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C536" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>535</v>
       </c>
       <c r="B537" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C537" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>536</v>
       </c>
       <c r="B538" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C538" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>537</v>
       </c>
@@ -15524,7 +16209,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>538</v>
       </c>
@@ -15532,7 +16217,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>539</v>
       </c>
@@ -15540,23 +16225,29 @@
         <v>540</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>540</v>
       </c>
       <c r="B542" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C542" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>541</v>
       </c>
       <c r="B543" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C543" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>542</v>
       </c>
@@ -15564,7 +16255,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>543</v>
       </c>
@@ -15572,7 +16263,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>544</v>
       </c>
@@ -15580,7 +16271,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>545</v>
       </c>
@@ -15588,31 +16279,40 @@
         <v>546</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>546</v>
       </c>
       <c r="B548" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C548" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>547</v>
       </c>
       <c r="B549" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C549" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>548</v>
       </c>
       <c r="B550" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C550" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>549</v>
       </c>
@@ -15620,7 +16320,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>550</v>
       </c>
@@ -15628,31 +16328,40 @@
         <v>551</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>551</v>
       </c>
       <c r="B553" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C553" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>552</v>
       </c>
       <c r="B554" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C554" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>553</v>
       </c>
       <c r="B555" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C555" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>554</v>
       </c>
@@ -15660,7 +16369,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>555</v>
       </c>
@@ -15668,7 +16377,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>556</v>
       </c>
@@ -15676,7 +16385,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>557</v>
       </c>
@@ -15684,7 +16393,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>558</v>
       </c>
@@ -15692,15 +16401,18 @@
         <v>559</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>559</v>
       </c>
       <c r="B561" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C561" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>560</v>
       </c>
@@ -15708,23 +16420,29 @@
         <v>561</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>561</v>
       </c>
       <c r="B563" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C563" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>562</v>
       </c>
       <c r="B564" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C564" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>563</v>
       </c>
@@ -15732,15 +16450,18 @@
         <v>564</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>564</v>
       </c>
       <c r="B566" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C566" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>565</v>
       </c>
@@ -15748,7 +16469,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>566</v>
       </c>
@@ -15756,7 +16477,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>567</v>
       </c>
@@ -15764,15 +16485,18 @@
         <v>568</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>568</v>
       </c>
       <c r="B570" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C570" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>569</v>
       </c>
@@ -15780,7 +16504,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>570</v>
       </c>
@@ -15788,55 +16512,73 @@
         <v>571</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>571</v>
       </c>
       <c r="B573" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C573" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>572</v>
       </c>
       <c r="B574" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C574" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>573</v>
       </c>
       <c r="B575" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C575" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>574</v>
       </c>
       <c r="B576" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C576" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>575</v>
       </c>
       <c r="B577" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C577" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>576</v>
       </c>
       <c r="B578" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C578" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>577</v>
       </c>
@@ -15844,7 +16586,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>578</v>
       </c>
@@ -15852,7 +16594,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>579</v>
       </c>
@@ -15860,7 +16602,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>580</v>
       </c>
@@ -15868,7 +16610,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>581</v>
       </c>
@@ -15876,7 +16618,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>582</v>
       </c>
@@ -15884,7 +16626,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>583</v>
       </c>
@@ -15892,7 +16634,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>584</v>
       </c>
@@ -15900,15 +16642,18 @@
         <v>585</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>585</v>
       </c>
       <c r="B587" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C587" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>586</v>
       </c>
@@ -15916,7 +16661,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>587</v>
       </c>
@@ -15924,7 +16669,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>588</v>
       </c>
@@ -15932,7 +16677,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>589</v>
       </c>
@@ -15940,7 +16685,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>590</v>
       </c>
